--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavocamargo/Developer/Projects/TasteBud/SoftwareArchitecture/Project/Context/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C318D21-C8B2-0E40-9D79-ED48D29F691D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,130 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>El objetivo y las funciones de la herramienta se exponen de forma directa y comprensible. Se emplean frases breves y listas que facilitan la lectura.</t>
+  </si>
+  <si>
+    <t>Se mencionan propósito, tareas automatizadas, ventajas y resultados esperados.</t>
+  </si>
+  <si>
+    <t>Presentación limpia, sin errores ortográficos notorios y uso correcto de viñetas.</t>
+  </si>
+  <si>
+    <t>El texto se alinea con el diagrama mostrado: flujo de entrada (dominio/IP) → motor central → herramientas de escaneo (Nmap, Nikto, DNS) → reporte.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las descripciones son breves y cada requerimiento expresa una sola idea; sin embargo, la repetición del identificador </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF‑03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para tres ítems distintos puede generar confusión.</t>
+    </r>
+  </si>
+  <si>
+    <t>El nivel de detalle permite entender la intención y el alcance de cada funcionalidad sin ambigüedades técnicas.</t>
+  </si>
+  <si>
+    <t>Todos los requerimientos encajan con el flujo general del proyecto (autenticación → escaneo → clasificación → reportes → dashboard).</t>
+  </si>
+  <si>
+    <t>Cada requerimiento incluye al menos un interesado claramente identificado.</t>
+  </si>
+  <si>
+    <t>El texto describe de forma directa el qué y el porqué; la mayoría de las métricas son intuitivas.</t>
+  </si>
+  <si>
+    <t>Los RNF se ajustan al dominio del proyecto (rendimiento, disponibilidad, seguridad, escalabilidad y usabilidad), alineándose con los escenarios de pentesting asistido por IA.</t>
+  </si>
+  <si>
+    <t>Cada requisito incluye una métrica cuantificable y al menos un interesado identificado.</t>
+  </si>
+  <si>
+    <t>Los cinco stakeholders (IT Manager, Pentester, DevOps, QA, PM) cuentan con al menos un atributo calificado.</t>
+  </si>
+  <si>
+    <t>Cada fila suma exactamente 100 %.</t>
+  </si>
+  <si>
+    <t>Los promedios por atributo (fila “Total Atributo”) están correctamente calculados (promedio simple de las cinco filas) y redondeados a un decimal.</t>
+  </si>
+  <si>
+    <t>La suma de los promedios (15,6 + 18,8 + … + 17,4) es exactamente 100 %, cumpliendo el ajuste requerido.</t>
+  </si>
+  <si>
+    <t>Cada atributo incluye categoría, descripción, métrica y ponderación; sin embargo no se logra entender a qué subcategoría apunta.</t>
+  </si>
+  <si>
+    <t>La fórmula (I+D) × P se aplica correctamente.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se asignan valores de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Impacto (I)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dificultad (D)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a todos los atributos, sin omisiones.</t>
+    </r>
+  </si>
+  <si>
+    <t>El resultado final no está ordenado estrictamente de mayor a menor valor.</t>
   </si>
 </sst>
 </file>
@@ -152,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +309,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +460,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -325,17 +468,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,13 +493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -371,9 +514,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +554,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +660,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,20 +812,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="137.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,283 +842,323 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="D2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="D3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="D6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="D7" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="D8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="D10" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="D11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="D12" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="D14" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="D15" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="D16" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="D18" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="D19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="D20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="D21" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
@@ -987,5 +1170,6 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilianestefaniamaradiagocorrea/Desktop/SoftwareArchitecture/Project/Context/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB880243-D0A4-5644-A328-623F36E85E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="14800" yWindow="900" windowWidth="14440" windowHeight="16600" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,18 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>yo agregaria algo que explique brevemente bajo que criterios hace la seleccion o que es lo que me arroja el analisis: por ejemplo …. Realiza un analisis teniendo en cuenta el modelo de negocio o las necesidades del negocio para el cual esta pensado el espacio. (ese seria el criterio de clasificacion de propiedades)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me gusta porque tambien incluye criterios de aceptacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hace falta la categoria </t>
+  </si>
+  <si>
+    <t>creo que  la multiplicacion del peso se esta haciendo en formato incorrecto, deberia ser 28%, 28/100 o 0.28</t>
   </si>
 </sst>
 </file>
@@ -152,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -317,7 +340,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -325,17 +348,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +375,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,20 +692,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,283 +722,291 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>0.25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="D3" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0.25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>0.25</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="D6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>0.25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>0.25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>0.25</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>0.25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>0.25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>0.25</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>0.25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>0.25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>0.25</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <v>0.25</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="D18" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>0.25</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="D20" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <v>0.25</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,18 +123,12 @@
     <t>Total</t>
   </si>
   <si>
-    <t>El total de promedios es ajustado y sy suma es el 100%</t>
-  </si>
-  <si>
     <t>Se detalla la categoria y subcategoria</t>
   </si>
   <si>
     <t>Clasificacion</t>
   </si>
   <si>
-    <t>Se califican los grados de impacto y Dificultad por aca atributo</t>
-  </si>
-  <si>
     <t>Prioridad</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>El total de promedios es ajustado y su suma es el 100%</t>
+  </si>
+  <si>
+    <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -325,17 +325,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,13 +350,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,284 +696,284 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>0.25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>0.25</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0.25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>0.25</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>0.25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>0.25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>0.25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>0.25</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>0.25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>0.25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>0.25</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>0.25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>0.25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>0.25</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="12">
+        <v>39</v>
+      </c>
+      <c r="D19" s="6">
         <v>0.25</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="12">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.25</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6">
         <v>0.25</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
         <v>5</v>
       </c>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,150 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF55138A-9504-4D86-8D69-0DC3A94C8057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Especificación</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Observacion</t>
+  </si>
   <si>
     <t>Contexto</t>
   </si>
   <si>
+    <t>Claridad</t>
+  </si>
+  <si>
+    <t>El texto es claro y conciso</t>
+  </si>
+  <si>
+    <t>Completitud</t>
+  </si>
+  <si>
+    <t>El texto es detallado y su idea es consistente</t>
+  </si>
+  <si>
+    <t>Coherencia</t>
+  </si>
+  <si>
+    <t>El texto es coherente con el Diagrama Presentado</t>
+  </si>
+  <si>
+    <t>No hay Diagrama</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>El texto es limpio y sin errores de ortografa o formato</t>
+  </si>
+  <si>
     <t>Requerimientos Funcionales</t>
   </si>
   <si>
+    <t>La descripcion es clara y concisa (una sola idea)</t>
+  </si>
+  <si>
+    <t>Comprensible</t>
+  </si>
+  <si>
+    <t>El detalle es entendible y consistente</t>
+  </si>
+  <si>
+    <t>Coherente</t>
+  </si>
+  <si>
+    <t>El Requerimiento es coherente con los escenarios</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>Incluye al menos un interesado por Requerimiento</t>
+  </si>
+  <si>
     <t>Requerimiento NO Funcionales</t>
   </si>
   <si>
+    <t>El texto es entendible y consistente</t>
+  </si>
+  <si>
+    <t>El texto menciona su metrica y se listan los interesados</t>
+  </si>
+  <si>
     <t>Atributos de Calidad</t>
   </si>
   <si>
+    <t>Cada interesado tiene al menos un atributo calificado</t>
+  </si>
+  <si>
+    <t>Consistente</t>
+  </si>
+  <si>
+    <t>Los valores son consistentes y su suma es 100%</t>
+  </si>
+  <si>
+    <t>Calculos</t>
+  </si>
+  <si>
+    <t>Los calculos de promedio son correctos y ajustados</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>El total de promedios es ajustado y sy suma es el 100%</t>
+  </si>
+  <si>
     <t>Ponderacion</t>
   </si>
   <si>
-    <t>Categorias</t>
-  </si>
-  <si>
-    <t>Completitud</t>
-  </si>
-  <si>
-    <t>Coherencia</t>
-  </si>
-  <si>
-    <t>Claridad</t>
-  </si>
-  <si>
-    <t>Formato</t>
-  </si>
-  <si>
-    <t>El texto es detallado y su idea es consistente</t>
-  </si>
-  <si>
-    <t>El texto es limpio y sin errores de ortografa o formato</t>
-  </si>
-  <si>
-    <t>Especificación</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>Calificación</t>
-  </si>
-  <si>
-    <t>El texto es claro y conciso</t>
-  </si>
-  <si>
-    <t>Completo</t>
-  </si>
-  <si>
-    <t>Comprensible</t>
-  </si>
-  <si>
-    <t>Coherente</t>
-  </si>
-  <si>
-    <t>La descripcion es clara y concisa (una sola idea)</t>
-  </si>
-  <si>
-    <t>El detalle es entendible y consistente</t>
-  </si>
-  <si>
-    <t>Incluye al menos un interesado por Requerimiento</t>
-  </si>
-  <si>
-    <t>El texto es coherente con el Diagrama Presentado</t>
-  </si>
-  <si>
-    <t>El texto es entendible y consistente</t>
-  </si>
-  <si>
-    <t>El texto menciona su metrica y se listan los interesados</t>
-  </si>
-  <si>
-    <t>El Requerimiento es coherente con los escenarios</t>
-  </si>
-  <si>
-    <t>Cada interesado tiene al menos un atributo calificado</t>
-  </si>
-  <si>
-    <t>Consistente</t>
-  </si>
-  <si>
-    <t>Los valores son consistentes y su suma es 100%</t>
-  </si>
-  <si>
-    <t>Calculos</t>
-  </si>
-  <si>
-    <t>Los calculos de promedio son correctos y ajustados</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>El total de promedios es ajustado y sy suma es el 100%</t>
-  </si>
-  <si>
     <t>Se detalla la categoria y subcategoria</t>
   </si>
   <si>
+    <t>No hay Categoria ni subcategoria</t>
+  </si>
+  <si>
     <t>Clasificacion</t>
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por aca atributo</t>
   </si>
   <si>
+    <t>El calculo se ajusta a: (Impacto + Dificultad) * ponderacion</t>
+  </si>
+  <si>
     <t>Prioridad</t>
   </si>
   <si>
     <t>el Resultado Final Muestra el Orden de mayor a menor</t>
   </si>
   <si>
-    <t>El calculo se ajusta a: (Impacto + Dificultad) * ponderacion</t>
-  </si>
-  <si>
-    <t>Observacion</t>
+    <t>En la prioridad se escapo colocar primero la mantenibilidad, creo yo que es un error que no debe ser tan penalizado por eso le di 0,15</t>
+  </si>
+  <si>
+    <t>Observaciones Finales</t>
+  </si>
+  <si>
+    <t>La presentacion es muy clara y presenta un proyecto muy interesante. Cumple con casi todos los puntos que se deben evaluar a la perfeccion, solo falto el diagrama y colocar las categorias y subcategorias. En la prioridad se escapo colocar primero la mantenibilidad, creo que fue un error que se escapo, se recomienda cambiarlo para que las prioridades queden bien.</t>
   </si>
 </sst>
 </file>
@@ -153,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +203,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -205,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -314,28 +346,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +425,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -667,315 +748,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
         <v>0.25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>0.25</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6">
         <v>0.25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>0.25</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6">
         <v>0.25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6">
         <v>0.25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="45.75">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="152.25">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilianestefaniamaradiagocorrea/Downloads/SoftwareArchitecture-2025-01-lilmarcor 2/Project/Context/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9088B9-665D-D549-90C6-AEA9798AF270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="14800" yWindow="900" windowWidth="14440" windowHeight="16600" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Contexto</t>
   </si>
@@ -123,12 +134,18 @@
     <t>Total</t>
   </si>
   <si>
+    <t>El total de promedios es ajustado y sy suma es el 100%</t>
+  </si>
+  <si>
     <t>Se detalla la categoria y subcategoria</t>
   </si>
   <si>
     <t>Clasificacion</t>
   </si>
   <si>
+    <t>Se califican los grados de impacto y Dificultad por aca atributo</t>
+  </si>
+  <si>
     <t>Prioridad</t>
   </si>
   <si>
@@ -141,10 +158,19 @@
     <t>Observacion</t>
   </si>
   <si>
-    <t>El total de promedios es ajustado y su suma es el 100%</t>
-  </si>
-  <si>
-    <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+    <t>yo agregaria algo que explique brevemente bajo que criterios hace la seleccion o que es lo que me arroja el analisis: por ejemplo …. Realiza un analisis teniendo en cuenta el modelo de negocio o las necesidades del negocio para el cual esta pensado el espacio. (ese seria el criterio de clasificacion de propiedades)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me gusta porque tambien incluye criterios de aceptacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hace falta la categoria </t>
+  </si>
+  <si>
+    <t>creo que  la multiplicacion del peso se esta haciendo en formato incorrecto, deberia ser 28%, 28/100 o 0.28</t>
+  </si>
+  <si>
+    <t>evaluacion de lilmarcor a dilaspsan</t>
   </si>
 </sst>
 </file>
@@ -152,8 +178,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -179,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +230,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -317,9 +349,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,8 +362,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,9 +384,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,19 +703,19 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -696,10 +729,10 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -714,7 +747,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -723,11 +756,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -740,7 +775,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -753,7 +788,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -766,9 +801,11 @@
       <c r="D6" s="6">
         <v>0.25</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -781,7 +818,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -794,7 +831,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -807,7 +844,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -822,7 +859,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -835,7 +872,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -848,7 +885,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -861,7 +898,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
@@ -876,7 +913,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -889,7 +926,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -902,20 +939,20 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6">
         <v>0.25</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -923,59 +960,66 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6">
         <v>0.25</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6">
         <v>0.25</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.8599999999999994</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilianestefaniamaradiagocorrea/Desktop/SoftwareArchitecture/Project/Context/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB880243-D0A4-5644-A328-623F36E85E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6938D0BB-F2AF-7E4B-A268-06EC07D46F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="900" windowWidth="14440" windowHeight="16600" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="14800" yWindow="880" windowWidth="14440" windowHeight="16600" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Contexto</t>
   </si>
@@ -156,18 +156,6 @@
   </si>
   <si>
     <t>Observacion</t>
-  </si>
-  <si>
-    <t>yo agregaria algo que explique brevemente bajo que criterios hace la seleccion o que es lo que me arroja el analisis: por ejemplo …. Realiza un analisis teniendo en cuenta el modelo de negocio o las necesidades del negocio para el cual esta pensado el espacio. (ese seria el criterio de clasificacion de propiedades)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">me gusta porque tambien incluye criterios de aceptacion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hace falta la categoria </t>
-  </si>
-  <si>
-    <t>creo que  la multiplicacion del peso se esta haciendo en formato incorrecto, deberia ser 28%, 28/100 o 0.28</t>
   </si>
 </sst>
 </file>
@@ -692,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,11 +734,9 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
@@ -791,9 +777,7 @@
       <c r="D6" s="6">
         <v>0.25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -953,11 +937,9 @@
         <v>33</v>
       </c>
       <c r="D18" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
@@ -981,11 +963,9 @@
         <v>38</v>
       </c>
       <c r="D20" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1006,7 +986,7 @@
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonm\Desktop\andricrea\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF7590A-0B93-4A14-8EA4-58CD5443DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0852B-BB48-4B91-B587-03182DCE0393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>Presenta el problema, explica la motivación y el enfoque general de la solución. Aunque podría profundizarse más, lo que hay da una visión coherente del proyecto.</t>
   </si>
   <si>
-    <t>La coherencia textual está bien, pero no hay un diagrama explícito para confirmar la correspondencia.</t>
-  </si>
-  <si>
     <t>Este requerimiento se ajusta al objetivo general del proyecto (gestión financiera). No contradice ningún escenario planteado</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Presentación limpia, sin errores ortográficos notorios.</t>
+  </si>
+  <si>
+    <t>La coherencia textual está bien, y el diagrama logra explicar el flujo del sistema.</t>
   </si>
 </sst>
 </file>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,7 +814,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -829,7 +829,7 @@
         <v>0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -861,7 +861,7 @@
         <v>0.15</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -876,7 +876,7 @@
         <v>0.25</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -891,7 +891,7 @@
         <v>0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -908,7 +908,7 @@
         <v>0.25</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -923,7 +923,7 @@
         <v>0.2</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -938,7 +938,7 @@
         <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -953,7 +953,7 @@
         <v>0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -970,7 +970,7 @@
         <v>0.25</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -985,7 +985,7 @@
         <v>0.25</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1000,7 +1000,7 @@
         <v>0.25</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1015,7 +1015,7 @@
         <v>0.25</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1032,7 +1032,7 @@
         <v>0.15</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1047,7 +1047,7 @@
         <v>0.25</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
         <v>0.15</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1077,7 +1077,7 @@
         <v>0.15</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,131 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E6F8D1D-3075-4BDD-8C6D-36BCFAB7F123}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Especificación</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Observacion</t>
+  </si>
   <si>
     <t>Contexto</t>
   </si>
   <si>
+    <t>Claridad</t>
+  </si>
+  <si>
+    <t>El texto es claro y conciso</t>
+  </si>
+  <si>
+    <t>Completitud</t>
+  </si>
+  <si>
+    <t>El texto es detallado y su idea es consistente</t>
+  </si>
+  <si>
+    <t>Plantea correctamente los medios y los objetivos que acata el sistema. Además, refleja una breve idea del cómo.</t>
+  </si>
+  <si>
+    <t>Coherencia</t>
+  </si>
+  <si>
+    <t>El texto es coherente con el Diagrama Presentado</t>
+  </si>
+  <si>
+    <t>Se retrata la idea planteada en el texto. Sin embargo, parece que dentro del flujo planteado hace falta una parte que lo hace sentir incompleto.</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>El texto es limpio y sin errores de ortografa o formato</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A lo mejor hay una coma que interrumpe la oración, pero no es un error </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Por lo cual, está bien.</t>
+    </r>
+  </si>
+  <si>
     <t>Requerimientos Funcionales</t>
   </si>
   <si>
+    <t>La descripcion es clara y concisa (una sola idea)</t>
+  </si>
+  <si>
+    <t>Comprensible</t>
+  </si>
+  <si>
+    <t>El detalle es entendible y consistente</t>
+  </si>
+  <si>
+    <t>Ciertamente es un detalle que es consistente en base a la descripción y el contexto. Sin embargo, puede ser un poco obvio de que trata de algo que debe tener el sistema. Podría involucrarse un poco más de explicación (más información en la nota).</t>
+  </si>
+  <si>
+    <t>Coherente</t>
+  </si>
+  <si>
+    <t>El Requerimiento es coherente con los escenarios</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>Incluye al menos un interesado por Requerimiento</t>
+  </si>
+  <si>
     <t>Requerimiento NO Funcionales</t>
   </si>
   <si>
+    <t>Hay un fallo en la escritura de uno.</t>
+  </si>
+  <si>
+    <t>El texto es entendible y consistente</t>
+  </si>
+  <si>
+    <t>El texto menciona su metrica y se listan los interesados</t>
+  </si>
+  <si>
     <t>Atributos de Calidad</t>
   </si>
   <si>
+    <t>Cada interesado tiene al menos un atributo calificado</t>
+  </si>
+  <si>
+    <t>Consistente</t>
+  </si>
+  <si>
+    <t>Los valores son consistentes y su suma es 100%</t>
+  </si>
+  <si>
+    <t>Calculos</t>
+  </si>
+  <si>
+    <t>Los calculos de promedio son correctos y ajustados</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>El total de promedios es ajustado y sy suma es el 100%</t>
+  </si>
+  <si>
     <t>Ponderacion</t>
   </si>
   <si>
-    <t>Categorias</t>
-  </si>
-  <si>
-    <t>Completitud</t>
-  </si>
-  <si>
-    <t>Coherencia</t>
-  </si>
-  <si>
-    <t>Claridad</t>
-  </si>
-  <si>
-    <t>Formato</t>
-  </si>
-  <si>
-    <t>El texto es detallado y su idea es consistente</t>
-  </si>
-  <si>
-    <t>El texto es limpio y sin errores de ortografa o formato</t>
-  </si>
-  <si>
-    <t>Especificación</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>Calificación</t>
-  </si>
-  <si>
-    <t>El texto es claro y conciso</t>
-  </si>
-  <si>
-    <t>Completo</t>
-  </si>
-  <si>
-    <t>Comprensible</t>
-  </si>
-  <si>
-    <t>Coherente</t>
-  </si>
-  <si>
-    <t>La descripcion es clara y concisa (una sola idea)</t>
-  </si>
-  <si>
-    <t>El detalle es entendible y consistente</t>
-  </si>
-  <si>
-    <t>Incluye al menos un interesado por Requerimiento</t>
-  </si>
-  <si>
-    <t>El texto es coherente con el Diagrama Presentado</t>
-  </si>
-  <si>
-    <t>El texto es entendible y consistente</t>
-  </si>
-  <si>
-    <t>El texto menciona su metrica y se listan los interesados</t>
-  </si>
-  <si>
-    <t>El Requerimiento es coherente con los escenarios</t>
-  </si>
-  <si>
-    <t>Cada interesado tiene al menos un atributo calificado</t>
-  </si>
-  <si>
-    <t>Consistente</t>
-  </si>
-  <si>
-    <t>Los valores son consistentes y su suma es 100%</t>
-  </si>
-  <si>
-    <t>Calculos</t>
-  </si>
-  <si>
-    <t>Los calculos de promedio son correctos y ajustados</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>El total de promedios es ajustado y sy suma es el 100%</t>
-  </si>
-  <si>
     <t>Se detalla la categoria y subcategoria</t>
   </si>
   <si>
@@ -135,16 +191,13 @@
     <t>Se califican los grados de impacto y Dificultad por aca atributo</t>
   </si>
   <si>
+    <t>El calculo se ajusta a: (Impacto + Dificultad) * ponderacion</t>
+  </si>
+  <si>
     <t>Prioridad</t>
   </si>
   <si>
     <t>el Resultado Final Muestra el Orden de mayor a menor</t>
-  </si>
-  <si>
-    <t>El calculo se ajusta a: (Impacto + Dificultad) * ponderacion</t>
-  </si>
-  <si>
-    <t>Observacion</t>
   </si>
 </sst>
 </file>
@@ -153,9 +206,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +229,19 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -319,23 +385,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,12 +418,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,312 +742,322 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="45.75">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45.75">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D4" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="30.75">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="D5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="76.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="D7" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>0.25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6">
         <v>0.25</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="12">
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6">
         <v>0.25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6">
         <v>0.25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="12">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6">
         <v>0.25</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="12">
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
         <v>0.25</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="12">
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6">
         <v>0.25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="12">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.25</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jddia\OneDrive\U\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C416714-D1D1-4D0E-9C51-B2B51B35BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Contexto</t>
   </si>
@@ -60,9 +71,6 @@
     <t>El texto es detallado y su idea es consistente</t>
   </si>
   <si>
-    <t>El texto es limpio y sin errores de ortografa o formato</t>
-  </si>
-  <si>
     <t>Especificación</t>
   </si>
   <si>
@@ -145,6 +153,60 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>Pequeño error ortográfico en la palabra “proposito”; falta tilde.</t>
+  </si>
+  <si>
+    <t>El texto es limpio y sin errores de ortografía o formato</t>
+  </si>
+  <si>
+    <t>Cada requerimiento presenta una única idea clara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	El texto es fácil de entender y está redactado con consistencia.</t>
+  </si>
+  <si>
+    <t>Todos los RNF tienen sentido.</t>
+  </si>
+  <si>
+    <t>Todos los requerimientos incluyen una métrica y una lista de interesados.</t>
+  </si>
+  <si>
+    <t>El detalle de cada requerimiento se entiende sin ambigüedades.</t>
+  </si>
+  <si>
+    <t>Cada requerimiento tiene una descripción clara y enfocada en una sola funcionalidad.</t>
+  </si>
+  <si>
+    <t>Cada requerimiento menciona al menos un interesado relevante.</t>
+  </si>
+  <si>
+    <t>Todos los requerimientos están alineados con el sistema descrito.</t>
+  </si>
+  <si>
+    <t>El texto comunica claramente el propósito del proyecto.</t>
+  </si>
+  <si>
+    <t>La información es completa.</t>
+  </si>
+  <si>
+    <t>Todos los stakeholders tienen al menos un atributo calificado</t>
+  </si>
+  <si>
+    <t>Las filas individuales suman 100%</t>
+  </si>
+  <si>
+    <t>Los valores de la fila "Total" parecen bien promediados para cada columna</t>
+  </si>
+  <si>
+    <t>La fila final (Total) suma 100%, tal como se espera.</t>
+  </si>
+  <si>
+    <t>Todos los atributos tienen valores numéricos claros para impacto y dificultad.</t>
+  </si>
+  <si>
+    <t>Se verifica que todos los valores calculados siguen la fórmula.</t>
   </si>
 </sst>
 </file>
@@ -152,7 +214,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -205,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -314,28 +376,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +466,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,314 +783,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="D2" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="D3" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
+      <c r="D11" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
-      </c>
+        <v>4.7</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -987,5 +1136,6 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4975910B-8B59-4DC1-951B-766826C7F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,66 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>La redaccion incluye ideas utiles y se hace facil de leer.</t>
+  </si>
+  <si>
+    <t>Se explica adecuadamente qué hace la aplicación, a quién está dirigida y su propósito principal, lo cual cumple con la expectativa de detalle y consistencia.</t>
+  </si>
+  <si>
+    <t>El diagrama da entender bien la idea de la funcionalidad principal del proyecto.</t>
+  </si>
+  <si>
+    <t>En el texto se encuentran varios errores ortograficos: musicos ( músicos ),  offiline-first ( offline-first ),  desarollar ( desarrollar ), paralelalemente ( paralelamente ), extraidas ( extraídas )</t>
+  </si>
+  <si>
+    <t>Esta correctamente definido.</t>
+  </si>
+  <si>
+    <t>El detalle es consistente y no hay ambigüedades.</t>
+  </si>
+  <si>
+    <t>El requerimiento esta bien definido en el escenario.</t>
+  </si>
+  <si>
+    <t>Todos los interesados esta correctamente definidos, pero en el REQ-03 se podria incluir al “Usuario aficionado” como segundo interesado si también se espera que edite pistas. Eso cerraría el criterio de “Completo”.</t>
+  </si>
+  <si>
+    <t>Los requerimientos están bastante claros y directos.</t>
+  </si>
+  <si>
+    <t>El texto es fácil de entender. Las descripciones y métricas están alineadas y son consistentes.</t>
+  </si>
+  <si>
+    <t>Los requerimientos son coherentes con los escenarios propuestos, como la compatibilidad de plataformas y la precisión del modelo de IA.</t>
+  </si>
+  <si>
+    <t>Los textos mencionan las métricas correspondientes y enumeran a los interesados, Sin embargo, algunos de los requisitos podrían profundizar más en las condiciones exactas o los detalles adicionales.</t>
+  </si>
+  <si>
+    <t>Todos los interesados tienen al menos un atributo con un valor (&gt; 0%) asignado</t>
+  </si>
+  <si>
+    <t>El reparto de porcentajes es internamente coherente y cada uno suma al 100%.</t>
+  </si>
+  <si>
+    <t>puede haber ligeros redondeos, la tabla refleja correctamente el promedio o la distribución global de los atributos sin inconsistencias notables.</t>
+  </si>
+  <si>
+    <t>La suma total está bien ajustada, de acuerdo con lo esperado.</t>
+  </si>
+  <si>
+    <t>El resultado final esta ordenado de mayor a menor valor.</t>
+  </si>
+  <si>
+    <t>La tabla tiene algunos de los campos necesarios, pero le faltan detalles importantes: Descripcion, Metrica, Impacto, Dificultad, %Peso.</t>
+  </si>
+  <si>
+    <t>No se califican los grados de impacto y dificultad en la tabla.</t>
+  </si>
+  <si>
+    <t>No se proporcionan cálculos claros en la tabla. El valor de cada atributo debería derivarse de la fórmula ( ( V = I +D )* P ), no hay una explicación de cómo llegaron a esos números en el valor final.</t>
   </si>
 </sst>
 </file>
@@ -152,7 +223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -205,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -314,28 +385,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +450,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +511,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +617,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,17 +769,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="214.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -700,282 +800,322 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>0.25</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>0.25</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>0.25</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13">
         <v>0.25</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>0.25</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>0.25</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="13">
         <v>0.25</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>0.25</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>0.25</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13">
         <v>0.25</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="13">
         <v>0.25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="13">
         <v>0.25</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="13">
         <v>0.25</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="13">
         <v>0.25</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="6">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -988,4 +1128,254 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C3BE8DCE641498DEA203EF943002A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9e20ab03da908dabee55b126ead32121">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2d9c58e-894e-400e-b299-f60da17f6113" xmlns:ns4="ba7e9e5f-66bf-46e7-b636-1be002119df9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b59f90b5503a9b000f493296583256c" ns3:_="" ns4:_="">
+    <xsd:import namespace="d2d9c58e-894e-400e-b299-f60da17f6113"/>
+    <xsd:import namespace="ba7e9e5f-66bf-46e7-b636-1be002119df9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d9c58e-894e-400e-b299-f60da17f6113" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="15" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ba7e9e5f-66bf-46e7-b636-1be002119df9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2d9c58e-894e-400e-b299-f60da17f6113" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBEFAC3-A095-43FE-857B-B8EEF561EB6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2d9c58e-894e-400e-b299-f60da17f6113"/>
+    <ds:schemaRef ds:uri="ba7e9e5f-66bf-46e7-b636-1be002119df9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F6C3EF-5DF9-4A0F-9EF4-4292DBF3825C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22819A74-D2F8-44A9-8462-C2337A848F07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d2d9c58e-894e-400e-b299-f60da17f6113"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ba7e9e5f-66bf-46e7-b636-1be002119df9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jose\Universidad\Semestre VII\Arquitectura\Corte II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F51D315-4805-4E5F-A01E-9E5C596B17B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,39 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>Si, describe beneficios y hasta elementos de la arquitectura</t>
+  </si>
+  <si>
+    <t>Sin errores ortograficos</t>
+  </si>
+  <si>
+    <t>Si, el diagrama muestra algunas conexiones con sistemas existentes</t>
+  </si>
+  <si>
+    <t>Si, cada requisito expresa una sola idea</t>
+  </si>
+  <si>
+    <t>Cada requisito es entendible y claro</t>
+  </si>
+  <si>
+    <t>Si, coherentes con el escenerio declarado en el contexto</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Si, descripciones claras</t>
+  </si>
+  <si>
+    <t>Entendible y consistente</t>
+  </si>
+  <si>
+    <t>Si, totaltemente coherentes con el escenario declarado</t>
+  </si>
+  <si>
+    <t>No se mencionan las métricas, pero si se mencionan los interesados por requisito</t>
   </si>
 </sst>
 </file>
@@ -152,8 +196,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,9 +361,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,9 +374,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,7 +401,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +458,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,20 +716,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,8 +746,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -712,10 +759,12 @@
       <c r="D2" s="6">
         <v>0.25</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -725,10 +774,12 @@
       <c r="D3" s="6">
         <v>0.25</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -738,10 +789,12 @@
       <c r="D4" s="6">
         <v>0.25</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -751,10 +804,12 @@
       <c r="D5" s="6">
         <v>0.25</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -766,10 +821,12 @@
       <c r="D6" s="6">
         <v>0.25</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -779,10 +836,12 @@
       <c r="D7" s="6">
         <v>0.25</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -792,10 +851,12 @@
       <c r="D8" s="6">
         <v>0.25</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -805,10 +866,12 @@
       <c r="D9" s="6">
         <v>0.25</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -820,10 +883,12 @@
       <c r="D10" s="6">
         <v>0.25</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -833,10 +898,12 @@
       <c r="D11" s="6">
         <v>0.25</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -846,10 +913,12 @@
       <c r="D12" s="6">
         <v>0.25</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -857,12 +926,14 @@
         <v>24</v>
       </c>
       <c r="D13" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -874,23 +945,27 @@
       <c r="D14" s="6">
         <v>0.25</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="6">
         <v>0.25</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -900,10 +975,12 @@
       <c r="D16" s="6">
         <v>0.25</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -913,10 +990,12 @@
       <c r="D17" s="6">
         <v>0.25</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -928,10 +1007,12 @@
       <c r="D18" s="6">
         <v>0.25</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
@@ -941,10 +1022,12 @@
       <c r="D19" s="6">
         <v>0.25</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -954,10 +1037,12 @@
       <c r="D20" s="6">
         <v>0.25</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
@@ -967,15 +1052,17 @@
       <c r="D21" s="6">
         <v>0.25</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.875</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\GitHub\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D2484-4786-47BB-80CC-26D902CD4FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Contexto</t>
   </si>
@@ -123,9 +134,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>El total de promedios es ajustado y sy suma es el 100%</t>
-  </si>
-  <si>
     <t>Se detalla la categoria y subcategoria</t>
   </si>
   <si>
@@ -145,6 +153,18 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>Menciona algunas métricas en la descripción de los requerimientos, pero no aparece un apartado que lo especifique.</t>
+  </si>
+  <si>
+    <t>El total de promedios es ajustado y su suma es el 100%</t>
+  </si>
+  <si>
+    <t>No se encuentra el resultado final de la ponderación ordenado de mayor a menor</t>
+  </si>
+  <si>
+    <t>El ponderado utilizado en cada atributo está medianamente relacionado con el cálculo hecho en la página de Atributos de Calidad</t>
   </si>
 </sst>
 </file>
@@ -152,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -317,25 +337,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +372,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +403,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +443,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +549,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,11 +701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -696,286 +728,292 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>0.25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>0.25</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0.25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>0.25</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>0.25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>0.25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>0.25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>0.25</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>0.25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>0.25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="D13" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>0.25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>0.25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>0.25</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.4499999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valek\Downloads\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF1311-9E05-41F3-8C8A-7CEC31CDEB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +154,15 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>El texto es coherente, pero no esta el diagrama para hacer aún más claro el proyecto</t>
+  </si>
+  <si>
+    <t>Estan bien para mi criterio</t>
+  </si>
+  <si>
+    <t>Esta bien para mi criterio</t>
   </si>
 </sst>
 </file>
@@ -152,8 +170,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,7 +335,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -330,8 +348,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,7 +372,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,7 +389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -669,20 +687,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,7 +717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -714,7 +732,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -727,7 +745,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -736,11 +754,13 @@
         <v>22</v>
       </c>
       <c r="D4" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -753,7 +773,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -768,7 +788,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -779,9 +799,11 @@
       <c r="D7" s="6">
         <v>0.25</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -794,7 +816,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -807,7 +829,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -822,7 +844,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -833,9 +855,11 @@
       <c r="D11" s="6">
         <v>0.25</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -848,7 +872,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -861,7 +885,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
@@ -876,7 +900,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -887,9 +911,11 @@
       <c r="D15" s="6">
         <v>0.25</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -902,7 +928,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -915,7 +941,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -930,7 +956,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>33</v>
@@ -943,7 +969,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -954,9 +980,11 @@
       <c r="D20" s="6">
         <v>0.25</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>34</v>
@@ -969,13 +997,13 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valek\Downloads\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF1311-9E05-41F3-8C8A-7CEC31CDEB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A9238D-A651-45C8-895A-5D37281C741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Contexto</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Esta bien para mi criterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificado por Valeria Rudas Ruiz  </t>
   </si>
 </sst>
 </file>
@@ -687,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1008,9 @@
         <f>SUM(D2:D21)</f>
         <v>4.75</v>
       </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\10325\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F092897-E6E8-412A-B97E-C6B9CAAB0E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>Los valores son consistentes con los stakeholders, pero su suma no es del 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se hizo calculo del promedio, solo se sumaron los valores </t>
+  </si>
+  <si>
+    <t>La suma de los valores totales si da 100%, pero estos no son promedios</t>
+  </si>
+  <si>
+    <t>Todos los valores estan bien acomodados de mayor a menor excepto el ultimo</t>
   </si>
 </sst>
 </file>
@@ -152,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +192,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,25 +341,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +376,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,7 +401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,19 +700,19 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,283 +729,291 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>0.25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>0.25</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0.25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>0.25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>0.25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>0.25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>0.25</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>0.25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>0.25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>0.25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="D15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="6">
         <v>0.25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>0.25</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="6">
         <v>0.25</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="D21" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -986,6 +1024,7 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Documents\Arquitectura\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88112FE3-9E44-4A2F-A4C6-E5E789185B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,66 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>No esta ordenado</t>
+  </si>
+  <si>
+    <t>Los cálculos son correctos</t>
+  </si>
+  <si>
+    <t>No tiene errores de ortografia o de redaccion</t>
+  </si>
+  <si>
+    <t>el diagrama es coherente con el contexto</t>
+  </si>
+  <si>
+    <t>Está bien redactado, no hay ambigüedades.</t>
+  </si>
+  <si>
+    <t>Es fácil de interpretar y sigue una misma línea.</t>
+  </si>
+  <si>
+    <t>Los requerimientos están relacionados correctamente con los casos de uso.</t>
+  </si>
+  <si>
+    <t>Está bien redactada y no se presta para confusiones.</t>
+  </si>
+  <si>
+    <t>Se entiende sin problema.</t>
+  </si>
+  <si>
+    <t>Los escenarios están alineados con los requerimientos definidos.</t>
+  </si>
+  <si>
+    <t>Todos los interesados cuentan con al menos un atributo asignado.</t>
+  </si>
+  <si>
+    <t>No hay inconsistencias en la distribución de valores.</t>
+  </si>
+  <si>
+    <t>Los promedios están bien hechos.</t>
+  </si>
+  <si>
+    <t>La suma final está correcta.</t>
+  </si>
+  <si>
+    <t>Asignaron valores que son para impacto y dificultad.</t>
+  </si>
+  <si>
+    <t>Incluyeron todas las categorías con sus respectivos subtemas.</t>
+  </si>
+  <si>
+    <t>Especificaron tanto la métrica como las personas relacionadas.</t>
+  </si>
+  <si>
+    <t>Indicaron quiénes se ven afectados o involucrados.</t>
+  </si>
+  <si>
+    <t>Explican bien qué hace el proyecto, pero no a quién ni qué problema resuelve</t>
   </si>
 </sst>
 </file>
@@ -152,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +245,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,25 +396,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +432,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +498,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,13 +754,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -682,7 +769,7 @@
     <col min="5" max="5" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,284 +786,329 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="D2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="D3" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="D6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="D7" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="D8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="D10" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="D11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="D12" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="D14" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="D15" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="D16" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="D17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="D20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
-      </c>
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -987,5 +1119,6 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhona\Documentos\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015AA725-A7DF-4F7D-8BFC-DCA8013DD0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,41 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>No se cumple el criterio, ya que los siguientes interesados no tienen ningún atributo de calidad asignado: PM, Ética Médica, UX, Pacientes, Clínicas e Infraestructura. Teniendo en cuenta que se usaban los mismos interesados de los RNF</t>
+  </si>
+  <si>
+    <t>Se detalla correctamente la categoría, pero falta incluir la subcategoría.</t>
+  </si>
+  <si>
+    <t>El cálculo no cumple con el criterio, ya que usa ponderaciones incorrectas. Por ejemplo, se asigna un 23.45% a rendimiento cuando debería ser 16.7% como se observa en los resultados de la tabla de atributos de calidad, lo que afecta la consistencia y validez del análisis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El orden presentado no cumple con el criterio establecido. El resultado final debería ser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seguridad (93,2%), Rendimiento (83,5%), Usabilidad (66,8%), Compatibilidad (50,1%), Fiabilidad (47,4%), Mantenibilidad (32,4%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, por ende, el orden mostrado es completamente incorrecto, lo que afecta la precisión en la priorización de los atributos.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -152,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +220,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,25 +371,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +406,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +480,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +586,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,20 +738,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,283 +768,291 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>0.25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>0.25</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0.25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>0.25</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>0.25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>0.25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>0.25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>0.25</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>0.25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>0.25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>0.25</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>0.25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>0.25</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <v>0.25</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="D18" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>0.25</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Torres\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E0CF7C-1F41-4004-8D22-D46109FB3D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,9 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>Al cumplir con todo lo solicitado en las caracteristicas su calificacion es 5.0</t>
   </si>
 </sst>
 </file>
@@ -152,7 +166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -179,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +218,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -314,28 +334,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +421,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +451,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +491,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +597,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,22 +747,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,287 +779,293 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>0.25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>0.25</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>0.25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>0.25</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>0.25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>0.25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>0.25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>0.25</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>0.25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>0.25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
         <v>0.25</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>0.25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="13">
         <v>0.25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="13">
         <v>0.25</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="13">
         <v>0.25</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="13">
         <v>0.25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="13">
         <v>0.25</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="13">
         <v>0.25</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="D21" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="6">
         <f>SUM(D2:D21)</f>
         <v>5</v>
       </c>
+      <c r="E22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E22:G22"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasaa\Desktop\U\ARCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C933D14D-2A29-4062-A991-2781DBDB1C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,48 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>Aunque es claro para un lector general, se puede mejorar la precisión técnica si el documento es para un equipo de desarrollo.</t>
+  </si>
+  <si>
+    <t>Aún falta mayor detalle técnico (tecnologías, módulos, usuarios específicos, etc.)</t>
+  </si>
+  <si>
+    <t>El formato es apropiado para un contexto de un proyecto.</t>
+  </si>
+  <si>
+    <t>Los requerimientos funcioanales están muy bien formulados para esta etapa del proyecto. Todos cumplen con claridad, son coherentes con los escenarios, entendibles, y tienen al menos un interesado definido.</t>
+  </si>
+  <si>
+    <t>La representación visual refuerza la simplicidad y claridad del flujo descrito.</t>
+  </si>
+  <si>
+    <t>Todos los requerimientos no funcionales están claramente definidos, fáciles de entender, alineados con el contexto de la aplicación FoodEmotional y contienen métricas e interesados relevantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la tabla es uniforme en cuanto a distribución porcentual de cada stakeholder.</t>
+  </si>
+  <si>
+    <t>Todos los stakeholdeers, han calificado múltiples atributos.</t>
+  </si>
+  <si>
+    <t>Los calculos de los promedios no son correctos.</t>
+  </si>
+  <si>
+    <t>El total de los promedios no esta bien ajustado, estan por encima del 100%.</t>
+  </si>
+  <si>
+    <t>Clasificación clara y adecuada a cada atributo del sistema.</t>
+  </si>
+  <si>
+    <t>Los calculos estan correctos y aplican la fórmula solicitada.</t>
+  </si>
+  <si>
+    <t>El criterio de prioridad no cumple con el orden de mayor a menor como se solicita.</t>
+  </si>
+  <si>
+    <t>No se detalla las categorias y sub categorias de forma explicita.</t>
   </si>
 </sst>
 </file>
@@ -152,8 +205,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -205,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,141 +273,75 @@
       <right style="thin">
         <color theme="4"/>
       </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="4"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,319 +654,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2" t="s">
+      <c r="D3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="D5" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="4" t="s">
+      <c r="D8" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="D9" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2" t="s">
+      <c r="D11" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
+      <c r="D12" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="D13" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2" t="s">
+      <c r="D14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2" t="s">
+      <c r="D15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="2" t="s">
+      <c r="D18" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2" t="s">
+      <c r="D19" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4" t="s">
+      <c r="D20" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="2">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.05</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -987,5 +1005,6 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonatan Ortega\Documents\GitHub\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DB40-89F2-4833-9F77-1F7E05C9AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4408B0DB-8C72-4A70-AAF9-D4E0926BCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,15 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>Hay algunos errores menores de redacción, faltan algunas comas para separar ideas. Falta la tilde en "analizará"  y el punto final.</t>
+  </si>
+  <si>
+    <t>Hay una leve ambigüedad con "entre otras" en el RF-02 que puede abrir a múltiples interpretaciones además de algunas palabras sin tildes en los requerimientos RF-03 y RF-04.</t>
+  </si>
+  <si>
+    <t>Hay un error tipográfico en el RNF-03: "100,00" el cual puede generar  confusión. Además, en el RNF-05 se mezcla varias ideas como minimizar fallos, recuperación de fallos críticos y no críticos, y disponibilidad.</t>
   </si>
 </sst>
 </file>
@@ -152,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -317,7 +337,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -325,17 +345,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,16 +372,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +391,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +431,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +537,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,20 +689,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,283 +719,289 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>0.25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>0.25</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0.25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="D6" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>0.25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
-        <v>0.25</v>
+      <c r="D9" s="6">
+        <v>0.2</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="D10" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>0.25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>0.25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>0.25</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>0.25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>0.25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>0.25</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <v>0.25</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="6">
         <v>0.25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>0.25</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="6">
         <v>0.25</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <v>0.25</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -987,5 +1013,6 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF8888F-3303-477D-954B-93B54C100165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,18 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>los resultados estan mal</t>
+  </si>
+  <si>
+    <t>al estar los resultados mal no se puede determinar si estan en orden</t>
+  </si>
+  <si>
+    <t>la suma de la negociación no equivale al 100% sino al 90%</t>
+  </si>
+  <si>
+    <t>la ultima no equivale al 100%</t>
   </si>
 </sst>
 </file>
@@ -152,8 +175,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,7 +340,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -330,8 +353,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,7 +377,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,17 +692,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="65.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -885,9 +908,11 @@
         <v>28</v>
       </c>
       <c r="D15" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -898,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -911,9 +936,11 @@
         <v>38</v>
       </c>
       <c r="D17" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -952,9 +979,11 @@
         <v>36</v>
       </c>
       <c r="D20" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -965,9 +994,11 @@
         <v>35</v>
       </c>
       <c r="D21" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="5" t="s">
@@ -975,7 +1006,7 @@
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianm2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E733CED-66E8-494D-A004-ED349496A587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,15 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>“fechas limite” (debe llevar tilde), “contenía” (debe ser “contenido”), y algunos saltos de línea innecesarios.</t>
+  </si>
+  <si>
+    <t>Se listan los interesados y hay métricas en la tabla de ponderación, pero no se explica por atributo en esta sección. Se asume que el lector interpreta el cruce con otras secciones, pero no está claro aquí.</t>
+  </si>
+  <si>
+    <t>RF002 tiene errores de redacción: "contenía" debería ser "contenido". También el texto está algo desordenado.</t>
   </si>
 </sst>
 </file>
@@ -152,8 +172,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -205,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -220,21 +240,6 @@
       <right style="thin">
         <color theme="4"/>
       </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -255,13 +260,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="4"/>
       </left>
       <right style="thin">
         <color theme="4"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="thin">
@@ -279,21 +284,6 @@
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -301,60 +291,113 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="4"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +414,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +454,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,17 +712,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="172.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -700,282 +743,288 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="D2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="D4" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="D6" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="D9" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="D10" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="D11" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="D12" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="D14" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="D15" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="D16" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="D17" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="D20" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>
@@ -987,5 +1036,6 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\U\Arquitectura\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9150E4CC-DF29-4C54-B21E-D12FA74A941F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,45 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>Cumple</t>
+  </si>
+  <si>
+    <t>Se presento una sola idea por cada requerimiento, es clara y concisa</t>
+  </si>
+  <si>
+    <t>Cada requerimiento es entendible y consistente</t>
+  </si>
+  <si>
+    <t>Explica precisamente lo que el sistema debe hacer</t>
+  </si>
+  <si>
+    <t>Cada requerimiento funcional incluye al menos un interesado</t>
+  </si>
+  <si>
+    <t>Los RNF son claros y concisos</t>
+  </si>
+  <si>
+    <t>El texto de cada requerimiento es entendible y consistente</t>
+  </si>
+  <si>
+    <t>Los RNF son coherentes con los escenarios planteados</t>
+  </si>
+  <si>
+    <t>No todos los requerimientos no funcionales mencionan métricas precisas</t>
+  </si>
+  <si>
+    <t>Cada interesado (stakeholder) tiene al menos un atributo</t>
+  </si>
+  <si>
+    <t>No especifica el porcentaje individual de cada interesado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -   </t>
+  </si>
+  <si>
+    <t>No se evidencian calculos debido a lo mencionado en el punto anterior</t>
   </si>
 </sst>
 </file>
@@ -152,8 +202,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,7 +367,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -330,8 +380,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,7 +404,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +421,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +461,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,19 +720,19 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,7 +749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -712,9 +762,11 @@
       <c r="D2" s="6">
         <v>0.25</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -725,9 +777,11 @@
       <c r="D3" s="6">
         <v>0.25</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -738,9 +792,11 @@
       <c r="D4" s="6">
         <v>0.25</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -751,9 +807,11 @@
       <c r="D5" s="6">
         <v>0.25</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -766,9 +824,11 @@
       <c r="D6" s="6">
         <v>0.25</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -779,9 +839,11 @@
       <c r="D7" s="6">
         <v>0.25</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -792,9 +854,11 @@
       <c r="D8" s="6">
         <v>0.25</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -805,9 +869,11 @@
       <c r="D9" s="6">
         <v>0.25</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -820,9 +886,11 @@
       <c r="D10" s="6">
         <v>0.25</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -833,9 +901,11 @@
       <c r="D11" s="6">
         <v>0.25</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -846,9 +916,11 @@
       <c r="D12" s="6">
         <v>0.25</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -857,11 +929,13 @@
         <v>24</v>
       </c>
       <c r="D13" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
@@ -874,9 +948,11 @@
       <c r="D14" s="6">
         <v>0.25</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -885,11 +961,13 @@
         <v>28</v>
       </c>
       <c r="D15" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -897,12 +975,14 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -910,12 +990,14 @@
       <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -928,9 +1010,11 @@
       <c r="D18" s="6">
         <v>0.25</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>33</v>
@@ -941,9 +1025,11 @@
       <c r="D19" s="6">
         <v>0.25</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -954,9 +1040,11 @@
       <c r="D20" s="6">
         <v>0.25</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>34</v>
@@ -967,15 +1055,17 @@
       <c r="D21" s="6">
         <v>0.25</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilianestefaniamaradiagocorrea/Desktop/SoftwareArchitecture/Project/Context/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6938D0BB-F2AF-7E4B-A268-06EC07D46F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB0CFC-C368-4545-A0FA-619C696602CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="880" windowWidth="14440" windowHeight="16600" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Contexto</t>
   </si>
@@ -156,6 +154,15 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>Podrías indicar brevemente el origen o tamaño del dataset ECG utilizado.</t>
+  </si>
+  <si>
+    <t>No se muestra ni aplica la fórmula (Impacto + Dificultad)·Peso.</t>
+  </si>
+  <si>
+    <t>evaluacion de juaconald a lilimarcor</t>
   </si>
 </sst>
 </file>
@@ -190,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +222,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -330,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -382,9 +396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,7 +436,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -528,7 +542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,20 +694,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -710,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -725,7 +739,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -734,11 +748,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -751,7 +767,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -764,7 +780,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -779,7 +795,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -792,7 +808,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -805,7 +821,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -818,7 +834,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -833,7 +849,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -846,7 +862,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -859,7 +875,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -872,7 +888,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
@@ -887,7 +903,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -900,7 +916,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -913,7 +929,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -926,7 +942,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -941,7 +957,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -954,7 +970,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -963,11 +979,13 @@
         <v>38</v>
       </c>
       <c r="D20" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -980,13 +998,16 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.8900000000000006</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF8888F-3303-477D-954B-93B54C100165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D66DCAE-D597-428A-BA24-B60DF6A357C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Contexto</t>
   </si>
@@ -156,18 +156,6 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
-  </si>
-  <si>
-    <t>los resultados estan mal</t>
-  </si>
-  <si>
-    <t>al estar los resultados mal no se puede determinar si estan en orden</t>
-  </si>
-  <si>
-    <t>la suma de la negociación no equivale al 100% sino al 90%</t>
-  </si>
-  <si>
-    <t>la ultima no equivale al 100%</t>
   </si>
 </sst>
 </file>
@@ -692,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,11 +896,9 @@
         <v>28</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -923,7 +909,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -936,11 +922,9 @@
         <v>38</v>
       </c>
       <c r="D17" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>0.26</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -979,11 +963,9 @@
         <v>36</v>
       </c>
       <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -994,11 +976,9 @@
         <v>35</v>
       </c>
       <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="5" t="s">
@@ -1006,7 +986,7 @@
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>4.1500000000000004</v>
+        <v>5.01</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\SoftwareArchitecture\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C9B03-D5B7-4BFE-B6DB-AE639072D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,6 +156,15 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>Donde deberian estar las descripciones de los NFR,  hay atributos de calidad</t>
+  </si>
+  <si>
+    <t>No hay metrica</t>
+  </si>
+  <si>
+    <t>Hay que desarrollar mas los detalles. Por ejemplo, se menciona una funcionalidad de "mapa" / "ubicación" varias veces en los distintos requerimientos.</t>
   </si>
 </sst>
 </file>
@@ -152,8 +172,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,9 +337,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,8 +350,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,9 +372,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,9 +392,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +432,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +538,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,17 +690,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="111.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -776,10 +797,10 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
@@ -789,7 +810,7 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="14">
         <v>0.25</v>
       </c>
       <c r="E8" s="2"/>
@@ -817,10 +838,10 @@
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -859,7 +880,9 @@
       <c r="D13" s="6">
         <v>0.25</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -975,7 +998,7 @@
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BBE2C-8253-4B3C-AD2D-44BC5ACEEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30C4B43-5D7F-43FB-B910-EF5497AB1CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Contexto</t>
   </si>
@@ -145,15 +156,78 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>Coherente con una arquitectura moderna (nube, integración, escalabilidad).</t>
+  </si>
+  <si>
+    <t>Sin errores ortográficos ni de formato detectables. El texto está bien estructurado visualmente.</t>
+  </si>
+  <si>
+    <t>Los requerimientos están organizados y etiquetados visualmente (aunque embebidos en una imagen), lo que los hace entendibles.</t>
+  </si>
+  <si>
+    <t>Cubre funcionalidades como autenticación, interacción entre usuarios, publicación de contenido, etc.</t>
+  </si>
+  <si>
+    <t>Se alinean con el objetivo de una red académica.</t>
+  </si>
+  <si>
+    <t>Al estar en imagen se pierde accesibilidad, pero está bien presentado visualmente.</t>
+  </si>
+  <si>
+    <t>Bien organizados, se puede entender cada ítem aunque esté en imagen.</t>
+  </si>
+  <si>
+    <t>Incluye disponibilidad, escalabilidad, rendimiento, y seguridad.</t>
+  </si>
+  <si>
+    <t>Está alineado con los atributos deseables de calidad de software.</t>
+  </si>
+  <si>
+    <t>Igual que antes, es claro pero menos accesible por estar en imagen.</t>
+  </si>
+  <si>
+    <t>Claros y explícitos (seguridad, rendimiento, escalabilidad, mantenibilidad, etc.).</t>
+  </si>
+  <si>
+    <t>Cubren un buen conjunto de atributos relevantes y la suma es 100%</t>
+  </si>
+  <si>
+    <t>El total de los promedios está normalizado al 100%.</t>
+  </si>
+  <si>
+    <t>La fórmula está correctamente aplicada.</t>
+  </si>
+  <si>
+    <t>Las categorías están listadas y organizadas.</t>
+  </si>
+  <si>
+    <t>Cada atributo tiene asociadas puntuaciones de impacto y dificultad.</t>
+  </si>
+  <si>
+    <t>La ponderación aparece explícita y aplicada correctamente.</t>
+  </si>
+  <si>
+    <t>El resultado final también está ordenado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluye detalles relevantes sobre microservicios, APIs RESTful, escalabilidad, servicios en la nube, etc. Muy completo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien logrado. El texto introductorio es claro, directo y fácil de entender. Explica qué es la plataforma y cuál es su propósito. </t>
+  </si>
+  <si>
+    <t>NOTA: Comentarios realizados por CHATGPT-4o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,9 +391,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,8 +404,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,13 +426,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9AA19CE3-40EA-4902-9247-06CED5B955C2}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -371,9 +450,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +490,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +596,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,20 +748,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,7 +778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -712,9 +791,11 @@
       <c r="D2" s="6">
         <v>0.25</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -725,9 +806,11 @@
       <c r="D3" s="6">
         <v>0.25</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -738,9 +821,11 @@
       <c r="D4" s="6">
         <v>0.25</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -751,9 +836,11 @@
       <c r="D5" s="6">
         <v>0.25</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -766,9 +853,11 @@
       <c r="D6" s="6">
         <v>0.25</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -779,9 +868,11 @@
       <c r="D7" s="6">
         <v>0.25</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -792,9 +883,11 @@
       <c r="D8" s="6">
         <v>0.25</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -805,9 +898,11 @@
       <c r="D9" s="6">
         <v>0.25</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -820,9 +915,11 @@
       <c r="D10" s="6">
         <v>0.25</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -833,9 +930,11 @@
       <c r="D11" s="6">
         <v>0.25</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -846,9 +945,11 @@
       <c r="D12" s="6">
         <v>0.25</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -859,9 +960,11 @@
       <c r="D13" s="6">
         <v>0.25</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
@@ -874,9 +977,11 @@
       <c r="D14" s="6">
         <v>0.25</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -887,9 +992,11 @@
       <c r="D15" s="6">
         <v>0.25</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -900,9 +1007,11 @@
       <c r="D16" s="6">
         <v>0.25</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -913,9 +1022,11 @@
       <c r="D17" s="6">
         <v>0.25</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -928,9 +1039,11 @@
       <c r="D18" s="6">
         <v>0.25</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>33</v>
@@ -941,9 +1054,11 @@
       <c r="D19" s="6">
         <v>0.25</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -954,9 +1069,11 @@
       <c r="D20" s="6">
         <v>0.25</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>34</v>
@@ -967,15 +1084,20 @@
       <c r="D21" s="6">
         <v>0.25</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
         <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Context/Context.Score.xlsx
+++ b/Project/Context/Context.Score.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\SoftwareArchitecture\Project\Context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\SoftwareArchitecture\Repository\Project\Context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D66DCAE-D597-428A-BA24-B60DF6A357C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EAD30-1323-4155-BB1C-99CA28EEC9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{43D718D0-2724-4196-A35D-E65845C004B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Contexto</t>
   </si>
@@ -156,6 +145,9 @@
   </si>
   <si>
     <t>Se califican los grados de impacto y Dificultad por dada atributo</t>
+  </si>
+  <si>
+    <t>Reevaluado para ser Lengaje Propositivo, por que el proyecto esta en construccion no es una evalaucion arquitectonica</t>
   </si>
 </sst>
 </file>
@@ -163,8 +155,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -328,7 +320,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -341,8 +333,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,7 +357,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,9 +374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,7 +414,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -528,7 +520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,11 +672,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCA2EC-DA8C-4840-866D-0B6F8056BF9D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -721,9 +713,11 @@
         <v>15</v>
       </c>
       <c r="D2" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -986,7 +980,7 @@
       </c>
       <c r="D22" s="7">
         <f>SUM(D2:D21)</f>
-        <v>5.01</v>
+        <v>4.76</v>
       </c>
     </row>
   </sheetData>
